--- a/项目资料/党建云页面详情列表.xlsx
+++ b/项目资料/党建云页面详情列表.xlsx
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -641,18 +641,27 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -753,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -762,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -771,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -783,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -792,7 +801,7 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -801,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -810,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -819,7 +828,7 @@
         <v>31</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -831,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -843,7 +852,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -866,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -875,7 +884,7 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -884,7 +893,7 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -905,7 +914,7 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -917,7 +926,7 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -926,7 +935,7 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -940,7 +949,7 @@
         <v>46</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -949,7 +958,7 @@
         <v>47</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -958,7 +967,7 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -967,7 +976,7 @@
         <v>49</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1030,7 +1039,7 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1039,7 +1048,7 @@
         <v>57</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1048,7 +1057,7 @@
         <v>58</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1057,7 +1066,7 @@
         <v>59</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1066,7 +1075,7 @@
         <v>60</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1075,7 +1084,7 @@
         <v>61</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1098,7 +1107,7 @@
         <v>65</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1107,7 +1116,7 @@
         <v>66</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1121,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1130,7 +1139,7 @@
         <v>69</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1139,7 +1148,7 @@
         <v>70</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1148,7 +1157,7 @@
         <v>71</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1160,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1174,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1192,7 +1201,7 @@
         <v>76</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1213,7 +1222,7 @@
         <v>79</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1222,7 +1231,7 @@
         <v>80</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1231,7 +1240,7 @@
         <v>81</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,7 +1249,7 @@
         <v>82</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1294,18 +1303,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="67" spans="1:4">
+      <c r="D67">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A62"/>
     <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/项目资料/党建云页面详情列表.xlsx
+++ b/项目资料/党建云页面详情列表.xlsx
@@ -290,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,16 +304,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -321,22 +335,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -642,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -651,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -660,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -674,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -683,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -692,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -704,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -716,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -730,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -739,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -748,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -762,7 +798,7 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -771,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -780,7 +816,7 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -792,46 +828,46 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>32</v>
@@ -840,10 +876,10 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>33</v>
@@ -852,19 +888,19 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -875,28 +911,28 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>40</v>
@@ -905,19 +941,20 @@
         <v>16</v>
       </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>37</v>
@@ -926,19 +963,19 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -949,16 +986,16 @@
         <v>46</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -967,7 +1004,7 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -976,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -985,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -994,7 +1031,7 @@
         <v>51</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1006,7 +1043,7 @@
         <v>34</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1018,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1030,7 +1067,7 @@
         <v>55</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1039,7 +1076,7 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1048,7 +1085,7 @@
         <v>57</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1075,7 +1112,7 @@
         <v>60</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1093,7 +1130,7 @@
         <v>62</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1107,7 +1144,7 @@
         <v>65</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1116,7 +1153,7 @@
         <v>66</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1130,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1139,7 +1176,7 @@
         <v>69</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1148,7 +1185,7 @@
         <v>70</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1157,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1169,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1183,7 +1220,7 @@
         <v>42</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1192,7 +1229,7 @@
         <v>75</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1201,7 +1238,7 @@
         <v>76</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1210,7 +1247,7 @@
         <v>77</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1222,7 +1259,7 @@
         <v>79</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1231,7 +1268,7 @@
         <v>80</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1240,7 +1277,7 @@
         <v>81</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1249,7 +1286,7 @@
         <v>82</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1258,7 +1295,7 @@
         <v>83</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1269,7 +1306,7 @@
         <v>85</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1280,7 +1317,7 @@
         <v>87</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1305,21 +1342,21 @@
     </row>
     <row r="67" spans="1:4">
       <c r="D67">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A62"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
